--- a/bots/crawl_ch/output/clothes_2022-08-20.xlsx
+++ b/bots/crawl_ch/output/clothes_2022-08-20.xlsx
@@ -531,24 +531,24 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3305484006</t>
+          <t>6031467017</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Naturaline Damen Slip schwarz L</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarz M</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-slip-schwarz-l/p/3305484006</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarz-m/p/6031467017</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -563,7 +563,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -572,92 +572,108 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Naturaline Damen Slip schwarz L 7.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarz M - Online kein Bestand 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6031467017</t>
+          <t>6077154005</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm schwarz M</t>
+          <t>Avela Söckchen Pure Noir One Size</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarz-m/p/6031467017</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-pure-noir-one-size/p/6077154005</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Avela</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>24.95</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1.48/1ST</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm schwarz M - Online kein Bestand 24.95 Schweizer Franken</t>
+          <t>Avela Söckchen Pure Noir One Size 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6077154005</t>
+          <t>6075745012</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Avela Söckchen Pure Noir One Size</t>
+          <t>Avela Strumpfhose Madame Natural  11 - 12</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-pure-noir-one-size/p/6077154005</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-natural-11-12/p/6075745012</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
         <v>0</v>
@@ -669,74 +685,60 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1.48/1ST</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Avela Söckchen Pure Noir One Size 2.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame Natural  11 - 12 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6075745012</t>
+          <t>5799901001</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Natural  11 - 12</t>
+          <t>Magic Matic navy ecorepel</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-natural-11-12/p/6075745012</t>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/magic-matic-navy-ecorepel/p/5799901001</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -745,17 +747,17 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Natural  11 - 12 5.95 Schweizer Franken</t>
+          <t>Magic Matic navy ecorepel 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -806,7 +808,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -877,7 +879,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -948,7 +950,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1021,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -1070,7 +1072,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1123,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -1174,7 +1176,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1227,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -1276,7 +1278,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1331,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -1382,7 +1384,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -1433,7 +1435,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1488,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -1539,7 +1541,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -1610,7 +1612,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1683,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -1752,7 +1754,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1825,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1878,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1931,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1982,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2033,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2086,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -2135,7 +2137,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -2186,7 +2188,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -2237,7 +2239,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -2288,7 +2290,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -2339,7 +2341,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -2390,7 +2392,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -2443,7 +2445,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -2494,7 +2496,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -2545,7 +2547,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -2596,7 +2598,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -2647,7 +2649,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -2698,7 +2700,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -2749,7 +2751,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -2800,7 +2802,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -2851,7 +2853,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -2902,7 +2904,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -2955,7 +2957,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -3008,7 +3010,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -3059,7 +3061,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3112,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -3163,7 +3165,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3218,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -3269,7 +3271,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -3320,7 +3322,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -3371,7 +3373,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -3424,7 +3426,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -3475,7 +3477,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -3526,7 +3528,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -3577,7 +3579,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3630,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -3679,7 +3681,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -3730,7 +3732,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -3781,7 +3783,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -3834,7 +3836,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3887,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3938,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -3987,7 +3989,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4040,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4091,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -4160,7 +4162,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -4211,7 +4213,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -4262,7 +4264,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -4333,7 +4335,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
@@ -4404,7 +4406,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-08-20 07:00:47</t>
+          <t>2022-08-20 20:58:05</t>
         </is>
       </c>
     </row>
